--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0535121082488255</v>
+        <v>2.161116666666667</v>
       </c>
       <c r="N2">
-        <v>0.0535121082488255</v>
+        <v>6.48335</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9584259542460944</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9584259542460944</v>
       </c>
       <c r="Q2">
-        <v>7.777603175209711</v>
+        <v>350.96382740165</v>
       </c>
       <c r="R2">
-        <v>7.777603175209711</v>
+        <v>3158.67444661485</v>
       </c>
       <c r="S2">
-        <v>0.3770716863987139</v>
+        <v>0.3747801711381573</v>
       </c>
       <c r="T2">
-        <v>0.3770716863987139</v>
+        <v>0.3747801711381573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0535121082488255</v>
+        <v>0.09374366666666666</v>
       </c>
       <c r="N3">
-        <v>0.0535121082488255</v>
+        <v>0.281231</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.04157404575390553</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04157404575390552</v>
       </c>
       <c r="Q3">
-        <v>3.498898937302972</v>
+        <v>15.223905564869</v>
       </c>
       <c r="R3">
-        <v>3.498898937302972</v>
+        <v>137.015150083821</v>
       </c>
       <c r="S3">
-        <v>0.1696326867167437</v>
+        <v>0.01625699712484365</v>
       </c>
       <c r="T3">
-        <v>0.1696326867167437</v>
+        <v>0.01625699712484365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H4">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J4">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0535121082488255</v>
+        <v>2.161116666666667</v>
       </c>
       <c r="N4">
-        <v>0.0535121082488255</v>
+        <v>6.48335</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9584259542460944</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9584259542460944</v>
       </c>
       <c r="Q4">
-        <v>6.076684154125778</v>
+        <v>141.3745570705445</v>
       </c>
       <c r="R4">
-        <v>6.076684154125778</v>
+        <v>1272.3710136349</v>
       </c>
       <c r="S4">
-        <v>0.2946081832783616</v>
+        <v>0.150968209703399</v>
       </c>
       <c r="T4">
-        <v>0.2946081832783616</v>
+        <v>0.150968209703399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.1663210839279</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H5">
-        <v>61.1663210839279</v>
+        <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J5">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0535121082488255</v>
+        <v>0.09374366666666666</v>
       </c>
       <c r="N5">
-        <v>0.0535121082488255</v>
+        <v>0.281231</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.04157404575390553</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.04157404575390552</v>
       </c>
       <c r="Q5">
-        <v>3.273138795025567</v>
+        <v>6.132463627523777</v>
       </c>
       <c r="R5">
-        <v>3.273138795025567</v>
+        <v>55.19217264771399</v>
       </c>
       <c r="S5">
-        <v>0.158687443606181</v>
+        <v>0.006548611533095793</v>
       </c>
       <c r="T5">
-        <v>0.158687443606181</v>
+        <v>0.006548611533095793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H6">
+        <v>378.92083</v>
+      </c>
+      <c r="I6">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J6">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>2.161116666666667</v>
+      </c>
+      <c r="N6">
+        <v>6.48335</v>
+      </c>
+      <c r="O6">
+        <v>0.9584259542460944</v>
+      </c>
+      <c r="P6">
+        <v>0.9584259542460944</v>
+      </c>
+      <c r="Q6">
+        <v>272.9640403533889</v>
+      </c>
+      <c r="R6">
+        <v>2456.6763631805</v>
+      </c>
+      <c r="S6">
+        <v>0.2914873322290564</v>
+      </c>
+      <c r="T6">
+        <v>0.2914873322290565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H7">
+        <v>378.92083</v>
+      </c>
+      <c r="I7">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J7">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.09374366666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.281231</v>
+      </c>
+      <c r="O7">
+        <v>0.04157404575390553</v>
+      </c>
+      <c r="P7">
+        <v>0.04157404575390552</v>
+      </c>
+      <c r="Q7">
+        <v>11.84047599352555</v>
+      </c>
+      <c r="R7">
+        <v>106.56428394173</v>
+      </c>
+      <c r="S7">
+        <v>0.01264396861655005</v>
+      </c>
+      <c r="T7">
+        <v>0.01264396861655005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>61.180387</v>
+      </c>
+      <c r="H8">
+        <v>183.541161</v>
+      </c>
+      <c r="I8">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J8">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>2.161116666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.48335</v>
+      </c>
+      <c r="O8">
+        <v>0.9584259542460944</v>
+      </c>
+      <c r="P8">
+        <v>0.9584259542460944</v>
+      </c>
+      <c r="Q8">
+        <v>132.2179540188166</v>
+      </c>
+      <c r="R8">
+        <v>1189.96158616935</v>
+      </c>
+      <c r="S8">
+        <v>0.1411902411754818</v>
+      </c>
+      <c r="T8">
+        <v>0.1411902411754818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>61.180387</v>
+      </c>
+      <c r="H9">
+        <v>183.541161</v>
+      </c>
+      <c r="I9">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J9">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.09374366666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.281231</v>
+      </c>
+      <c r="O9">
+        <v>0.04157404575390553</v>
+      </c>
+      <c r="P9">
+        <v>0.04157404575390552</v>
+      </c>
+      <c r="Q9">
+        <v>5.735273805465666</v>
+      </c>
+      <c r="R9">
+        <v>51.61746424919099</v>
+      </c>
+      <c r="S9">
+        <v>0.006124468479416029</v>
+      </c>
+      <c r="T9">
+        <v>0.006124468479416029</v>
       </c>
     </row>
   </sheetData>
